--- a/medicine/Œil et vue/Ommatidie/Ommatidie.xlsx
+++ b/medicine/Œil et vue/Ommatidie/Ommatidie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les yeux composés des arthropodes (dont insectes et millipèdes)[3] sont composés de structures unitaires dites ommatidies, ommatidia (du latin ommatidium).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les yeux composés des arthropodes (dont insectes et millipèdes) sont composés de structures unitaires dites ommatidies, ommatidia (du latin ommatidium).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Nombre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nombre d'ommatidies dans l'œil varie selon les insectes de quelques-uns chez les Archaeognathae primitifs et chez les thysanoures à environ 30 000 dans les grandes libellules anisoptères et chez certains papillons de nuits de la famille des Sphingidae[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre d'ommatidies dans l'œil varie selon les insectes de quelques-uns chez les Archaeognathae primitifs et chez les thysanoures à environ 30 000 dans les grandes libellules anisoptères et chez certains papillons de nuits de la famille des Sphingidae
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de l'ommatidie varie selon l'espèce de 5 à 50 micromètres (µm). 
-Le rhabdome qu'elles contiennent a une section transversale souvent de moins de 1 µm de large[5].
+Le rhabdome qu'elles contiennent a une section transversale souvent de moins de 1 µm de large.
 Certains assimilent les assemblements de microlentilles de certains écrans ou « yeux artificiels » à des ommatidies d'yeux composés (biomimétiques) ; c'est un des nombreux domaines explorés par la biomimétique.
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Forme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ommatidies ont généralement une section hexagonale (vue en coupe transversale). Elles sont environ dix fois plus longues que larges. Le plus grand diamètre est à la surface, se rétrécissant vers le fond de l'œil.
 </t>
@@ -606,7 +624,9 @@
           <t>Fonctions et physiologie de l’œil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque ommatidie contient un groupe de cellules photoréceptrices entourées de cellules de soutien et de cellules pigmentées.
 La partie extérieure de l'ommatidie est recouverte d'une cornée transparente.
